--- a/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Total.xlsx
+++ b/Documents/9. Test Case/C1SE.06_CVPMS_Test-Case-Total.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\9. Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7E157-8A6B-4335-B584-3723748EEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FEAF2-9185-47DB-B26A-E1FDB6DEB9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6590AE8-492A-4363-8932-5E456E298B34}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6590AE8-492A-4363-8932-5E456E298B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -441,18 +443,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -466,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,35 +482,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -522,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -536,17 +538,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:D7" si="0">SUM(C2:C6)</f>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
